--- a/docs/requirements/项目开发计划.xlsx
+++ b/docs/requirements/项目开发计划.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\client\China\piao\git\haomibo\docs\requirements\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB86B594-74EA-4BA0-92FA-6C3F30C26B85}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="2"/>
+    <workbookView xWindow="150" yWindow="0" windowWidth="28800" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="中文" sheetId="1" r:id="rId1"/>
@@ -1324,12 +1330,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1337,14 +1343,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1353,7 +1359,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1361,7 +1367,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1369,7 +1375,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1377,7 +1383,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1386,7 +1392,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1483,9 +1489,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -1537,11 +1540,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_Sheet1" xfId="1"/>
-    <cellStyle name="常规_中文" xfId="2"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规_中文" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1549,12 +1555,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1596,7 +1605,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1628,9 +1637,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1662,6 +1689,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1837,30 +1882,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A184" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="33.625" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -1875,7 +1920,7 @@
       <c r="D2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1886,7 +1931,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="16"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
@@ -1895,54 +1940,54 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" ht="27">
-      <c r="A5" s="11" t="s">
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="10" t="s">
         <v>384</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>387</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="11" t="s">
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>390</v>
       </c>
     </row>
@@ -1952,13 +1997,13 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>347</v>
       </c>
       <c r="B10" s="5"/>
@@ -1966,7 +2011,7 @@
       <c r="D10" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>393</v>
       </c>
     </row>
@@ -1977,119 +2022,119 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="16"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="24" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="24" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="16"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="16"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="16"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="16"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="16"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="16"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="16"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="16"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="16"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="16"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" s="6" customFormat="1">
       <c r="A24" s="8" t="s">
@@ -2098,7 +2143,7 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
@@ -2107,7 +2152,7 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="18"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
@@ -2116,7 +2161,7 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="18"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
@@ -2125,7 +2170,7 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="18"/>
+      <c r="E27" s="17"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
@@ -2134,7 +2179,7 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="18"/>
+      <c r="E28" s="17"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
@@ -2143,7 +2188,7 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="18"/>
+      <c r="E29" s="17"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
@@ -2152,7 +2197,7 @@
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="18"/>
+      <c r="E30" s="17"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
@@ -2161,7 +2206,7 @@
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="18"/>
+      <c r="E31" s="17"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
@@ -2170,7 +2215,7 @@
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="18"/>
+      <c r="E32" s="17"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
@@ -2179,7 +2224,7 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="18"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
@@ -2188,7 +2233,7 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="18"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
@@ -2197,7 +2242,7 @@
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="18"/>
+      <c r="E35" s="17"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
@@ -2206,7 +2251,7 @@
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="18"/>
+      <c r="E36" s="17"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
@@ -2215,7 +2260,7 @@
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="18"/>
+      <c r="E37" s="17"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
@@ -2224,7 +2269,7 @@
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="18"/>
+      <c r="E38" s="17"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
@@ -2233,7 +2278,7 @@
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="18"/>
+      <c r="E39" s="17"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
@@ -2242,7 +2287,7 @@
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="18"/>
+      <c r="E40" s="17"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
@@ -2251,7 +2296,7 @@
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="18"/>
+      <c r="E41" s="17"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
@@ -2260,7 +2305,7 @@
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="18"/>
+      <c r="E42" s="17"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
@@ -2269,7 +2314,7 @@
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="18"/>
+      <c r="E43" s="17"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
@@ -2278,7 +2323,7 @@
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="18"/>
+      <c r="E44" s="17"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
@@ -2287,7 +2332,7 @@
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="18"/>
+      <c r="E45" s="17"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
@@ -2296,7 +2341,7 @@
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="18"/>
+      <c r="E46" s="17"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
@@ -2305,7 +2350,7 @@
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="18"/>
+      <c r="E47" s="17"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
@@ -2314,7 +2359,7 @@
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="18"/>
+      <c r="E48" s="17"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
@@ -2323,7 +2368,7 @@
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="18"/>
+      <c r="E49" s="17"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
@@ -2332,7 +2377,7 @@
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="18"/>
+      <c r="E50" s="17"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
@@ -2341,7 +2386,7 @@
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="18"/>
+      <c r="E51" s="17"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
@@ -2350,7 +2395,7 @@
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="18"/>
+      <c r="E52" s="17"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
@@ -2359,7 +2404,7 @@
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="18"/>
+      <c r="E53" s="17"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
@@ -2368,7 +2413,7 @@
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="18"/>
+      <c r="E54" s="17"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
@@ -2377,7 +2422,7 @@
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="18"/>
+      <c r="E55" s="17"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
@@ -2386,7 +2431,7 @@
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="18"/>
+      <c r="E56" s="17"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
@@ -2395,7 +2440,7 @@
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="18"/>
+      <c r="E57" s="17"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
@@ -2404,7 +2449,7 @@
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="18"/>
+      <c r="E58" s="17"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
@@ -2413,7 +2458,7 @@
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="18"/>
+      <c r="E59" s="17"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
@@ -2422,7 +2467,7 @@
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="18"/>
+      <c r="E60" s="17"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
@@ -2431,7 +2476,7 @@
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="18"/>
+      <c r="E61" s="17"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
@@ -2440,7 +2485,7 @@
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="18"/>
+      <c r="E62" s="17"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
@@ -2449,7 +2494,7 @@
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="18"/>
+      <c r="E63" s="17"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
@@ -2458,7 +2503,7 @@
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="18"/>
+      <c r="E64" s="17"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
@@ -2467,7 +2512,7 @@
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="18"/>
+      <c r="E65" s="17"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
@@ -2476,7 +2521,7 @@
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="18"/>
+      <c r="E66" s="17"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
@@ -2485,7 +2530,7 @@
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="18"/>
+      <c r="E67" s="17"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
@@ -2494,7 +2539,7 @@
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="18"/>
+      <c r="E68" s="17"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
@@ -2503,7 +2548,7 @@
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="18"/>
+      <c r="E69" s="17"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
@@ -2512,7 +2557,7 @@
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="18"/>
+      <c r="E70" s="17"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
@@ -2521,7 +2566,7 @@
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="18"/>
+      <c r="E71" s="17"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
@@ -2530,7 +2575,7 @@
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="18"/>
+      <c r="E72" s="17"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
@@ -2539,7 +2584,7 @@
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="18"/>
+      <c r="E73" s="17"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
@@ -2548,7 +2593,7 @@
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="18"/>
+      <c r="E74" s="17"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
@@ -2557,7 +2602,7 @@
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="18"/>
+      <c r="E75" s="17"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
@@ -2566,7 +2611,7 @@
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="18"/>
+      <c r="E76" s="17"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
@@ -2575,7 +2620,7 @@
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="18"/>
+      <c r="E77" s="17"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
@@ -2584,7 +2629,7 @@
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="18"/>
+      <c r="E78" s="17"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
@@ -2593,7 +2638,7 @@
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="18"/>
+      <c r="E79" s="17"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
@@ -2602,7 +2647,7 @@
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="18"/>
+      <c r="E80" s="17"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
@@ -2611,7 +2656,7 @@
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
-      <c r="E81" s="18"/>
+      <c r="E81" s="17"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
@@ -2620,7 +2665,7 @@
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="18"/>
+      <c r="E82" s="17"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
@@ -2629,7 +2674,7 @@
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
-      <c r="E83" s="18"/>
+      <c r="E83" s="17"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
@@ -2638,7 +2683,7 @@
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="18"/>
+      <c r="E84" s="17"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
@@ -2647,7 +2692,7 @@
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
-      <c r="E85" s="18"/>
+      <c r="E85" s="17"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
@@ -2656,7 +2701,7 @@
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="18"/>
+      <c r="E86" s="17"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
@@ -2665,7 +2710,7 @@
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="18"/>
+      <c r="E87" s="17"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
@@ -2674,7 +2719,7 @@
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="18"/>
+      <c r="E88" s="17"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
@@ -2683,7 +2728,7 @@
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="18"/>
+      <c r="E89" s="17"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
@@ -2692,7 +2737,7 @@
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="18"/>
+      <c r="E90" s="17"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
@@ -2701,7 +2746,7 @@
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="18"/>
+      <c r="E91" s="17"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
@@ -2710,7 +2755,7 @@
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="18"/>
+      <c r="E92" s="17"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
@@ -2719,7 +2764,7 @@
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
-      <c r="E93" s="18"/>
+      <c r="E93" s="17"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
@@ -2728,7 +2773,7 @@
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="18"/>
+      <c r="E94" s="17"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
@@ -2737,7 +2782,7 @@
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="18"/>
+      <c r="E95" s="17"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
@@ -2746,7 +2791,7 @@
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="18"/>
+      <c r="E96" s="17"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
@@ -2755,7 +2800,7 @@
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
-      <c r="E97" s="18"/>
+      <c r="E97" s="17"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
@@ -2764,7 +2809,7 @@
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="18"/>
+      <c r="E98" s="17"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
@@ -2773,7 +2818,7 @@
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
-      <c r="E99" s="18"/>
+      <c r="E99" s="17"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
@@ -2782,7 +2827,7 @@
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="18"/>
+      <c r="E100" s="17"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
@@ -2791,7 +2836,7 @@
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
-      <c r="E101" s="18"/>
+      <c r="E101" s="17"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
@@ -2800,7 +2845,7 @@
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="18"/>
+      <c r="E102" s="17"/>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2" t="s">
@@ -2809,7 +2854,7 @@
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
-      <c r="E103" s="18"/>
+      <c r="E103" s="17"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
@@ -2818,7 +2863,7 @@
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="18"/>
+      <c r="E104" s="17"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2" t="s">
@@ -2827,7 +2872,7 @@
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="18"/>
+      <c r="E105" s="17"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
@@ -2836,7 +2881,7 @@
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="18"/>
+      <c r="E106" s="17"/>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2" t="s">
@@ -2845,7 +2890,7 @@
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="18"/>
+      <c r="E107" s="17"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
@@ -2854,7 +2899,7 @@
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="18"/>
+      <c r="E108" s="17"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2" t="s">
@@ -2863,7 +2908,7 @@
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
-      <c r="E109" s="18"/>
+      <c r="E109" s="17"/>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
@@ -2872,7 +2917,7 @@
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="18"/>
+      <c r="E110" s="17"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
@@ -2881,7 +2926,7 @@
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="18"/>
+      <c r="E111" s="17"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
@@ -2890,7 +2935,7 @@
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="18"/>
+      <c r="E112" s="17"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
@@ -2899,7 +2944,7 @@
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
-      <c r="E113" s="18"/>
+      <c r="E113" s="17"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2" t="s">
@@ -2908,7 +2953,7 @@
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="18"/>
+      <c r="E114" s="17"/>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2" t="s">
@@ -2917,7 +2962,7 @@
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="18"/>
+      <c r="E115" s="17"/>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2" t="s">
@@ -2926,7 +2971,7 @@
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="18"/>
+      <c r="E116" s="17"/>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2" t="s">
@@ -2935,7 +2980,7 @@
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
-      <c r="E117" s="18"/>
+      <c r="E117" s="17"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2" t="s">
@@ -2944,7 +2989,7 @@
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="18"/>
+      <c r="E118" s="17"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2" t="s">
@@ -2953,7 +2998,7 @@
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
-      <c r="E119" s="18"/>
+      <c r="E119" s="17"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2" t="s">
@@ -2962,7 +3007,7 @@
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="18"/>
+      <c r="E120" s="17"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2" t="s">
@@ -2971,7 +3016,7 @@
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="18"/>
+      <c r="E121" s="17"/>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2" t="s">
@@ -2980,7 +3025,7 @@
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="18"/>
+      <c r="E122" s="17"/>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2" t="s">
@@ -2989,7 +3034,7 @@
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="18"/>
+      <c r="E123" s="17"/>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2" t="s">
@@ -2998,7 +3043,7 @@
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="18"/>
+      <c r="E124" s="17"/>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2" t="s">
@@ -3007,7 +3052,7 @@
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
-      <c r="E125" s="18"/>
+      <c r="E125" s="17"/>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2" t="s">
@@ -3016,7 +3061,7 @@
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="18"/>
+      <c r="E126" s="17"/>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2" t="s">
@@ -3025,7 +3070,7 @@
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="18"/>
+      <c r="E127" s="17"/>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2" t="s">
@@ -3034,7 +3079,7 @@
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="18"/>
+      <c r="E128" s="17"/>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2" t="s">
@@ -3043,7 +3088,7 @@
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
-      <c r="E129" s="18"/>
+      <c r="E129" s="17"/>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2" t="s">
@@ -3052,7 +3097,7 @@
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="18"/>
+      <c r="E130" s="17"/>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2" t="s">
@@ -3061,7 +3106,7 @@
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
-      <c r="E131" s="18"/>
+      <c r="E131" s="17"/>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2" t="s">
@@ -3070,7 +3115,7 @@
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
-      <c r="E132" s="18"/>
+      <c r="E132" s="17"/>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2" t="s">
@@ -3079,7 +3124,7 @@
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
-      <c r="E133" s="18"/>
+      <c r="E133" s="17"/>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2" t="s">
@@ -3088,7 +3133,7 @@
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
-      <c r="E134" s="18"/>
+      <c r="E134" s="17"/>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2" t="s">
@@ -3097,7 +3142,7 @@
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
-      <c r="E135" s="18"/>
+      <c r="E135" s="17"/>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2" t="s">
@@ -3106,7 +3151,7 @@
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="18"/>
+      <c r="E136" s="17"/>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2" t="s">
@@ -3115,7 +3160,7 @@
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
-      <c r="E137" s="18"/>
+      <c r="E137" s="17"/>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2" t="s">
@@ -3124,7 +3169,7 @@
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
-      <c r="E138" s="18"/>
+      <c r="E138" s="17"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2" t="s">
@@ -3133,7 +3178,7 @@
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
-      <c r="E139" s="18"/>
+      <c r="E139" s="17"/>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2" t="s">
@@ -3142,7 +3187,7 @@
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
-      <c r="E140" s="18"/>
+      <c r="E140" s="17"/>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2" t="s">
@@ -3151,7 +3196,7 @@
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
-      <c r="E141" s="18"/>
+      <c r="E141" s="17"/>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2" t="s">
@@ -3160,7 +3205,7 @@
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="18"/>
+      <c r="E142" s="17"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2" t="s">
@@ -3169,7 +3214,7 @@
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
-      <c r="E143" s="18"/>
+      <c r="E143" s="17"/>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2" t="s">
@@ -3178,7 +3223,7 @@
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
-      <c r="E144" s="18"/>
+      <c r="E144" s="17"/>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2" t="s">
@@ -3187,7 +3232,7 @@
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
-      <c r="E145" s="18"/>
+      <c r="E145" s="17"/>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2" t="s">
@@ -3196,7 +3241,7 @@
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
-      <c r="E146" s="18"/>
+      <c r="E146" s="17"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2" t="s">
@@ -3205,7 +3250,7 @@
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
-      <c r="E147" s="18"/>
+      <c r="E147" s="17"/>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2" t="s">
@@ -3214,7 +3259,7 @@
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
-      <c r="E148" s="18"/>
+      <c r="E148" s="17"/>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2" t="s">
@@ -3223,7 +3268,7 @@
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
-      <c r="E149" s="18"/>
+      <c r="E149" s="17"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2" t="s">
@@ -3232,7 +3277,7 @@
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
-      <c r="E150" s="18"/>
+      <c r="E150" s="17"/>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2" t="s">
@@ -3241,7 +3286,7 @@
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
-      <c r="E151" s="18"/>
+      <c r="E151" s="17"/>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2" t="s">
@@ -3250,7 +3295,7 @@
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
-      <c r="E152" s="18"/>
+      <c r="E152" s="17"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2" t="s">
@@ -3259,7 +3304,7 @@
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
-      <c r="E153" s="18"/>
+      <c r="E153" s="17"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2" t="s">
@@ -3268,7 +3313,7 @@
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
-      <c r="E154" s="18"/>
+      <c r="E154" s="17"/>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2" t="s">
@@ -3277,7 +3322,7 @@
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
-      <c r="E155" s="18"/>
+      <c r="E155" s="17"/>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2" t="s">
@@ -3286,7 +3331,7 @@
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
-      <c r="E156" s="18"/>
+      <c r="E156" s="17"/>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2" t="s">
@@ -3295,7 +3340,7 @@
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
-      <c r="E157" s="18"/>
+      <c r="E157" s="17"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2" t="s">
@@ -3304,7 +3349,7 @@
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
-      <c r="E158" s="18"/>
+      <c r="E158" s="17"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2" t="s">
@@ -3313,7 +3358,7 @@
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
-      <c r="E159" s="18"/>
+      <c r="E159" s="17"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2" t="s">
@@ -3322,7 +3367,7 @@
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
-      <c r="E160" s="18"/>
+      <c r="E160" s="17"/>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2" t="s">
@@ -3331,7 +3376,7 @@
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
-      <c r="E161" s="18"/>
+      <c r="E161" s="17"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2" t="s">
@@ -3340,7 +3385,7 @@
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
-      <c r="E162" s="18"/>
+      <c r="E162" s="17"/>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2" t="s">
@@ -3349,7 +3394,7 @@
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
-      <c r="E163" s="18"/>
+      <c r="E163" s="17"/>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2" t="s">
@@ -3358,7 +3403,7 @@
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
-      <c r="E164" s="18"/>
+      <c r="E164" s="17"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2" t="s">
@@ -3367,7 +3412,7 @@
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
-      <c r="E165" s="18"/>
+      <c r="E165" s="17"/>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2" t="s">
@@ -3376,7 +3421,7 @@
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
-      <c r="E166" s="18"/>
+      <c r="E166" s="17"/>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2" t="s">
@@ -3385,7 +3430,7 @@
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
-      <c r="E167" s="18"/>
+      <c r="E167" s="17"/>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2" t="s">
@@ -3394,7 +3439,7 @@
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
-      <c r="E168" s="18"/>
+      <c r="E168" s="17"/>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2" t="s">
@@ -3403,7 +3448,7 @@
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
-      <c r="E169" s="18"/>
+      <c r="E169" s="17"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2" t="s">
@@ -3412,7 +3457,7 @@
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
-      <c r="E170" s="18"/>
+      <c r="E170" s="17"/>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2" t="s">
@@ -3421,7 +3466,7 @@
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
-      <c r="E171" s="18"/>
+      <c r="E171" s="17"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2" t="s">
@@ -3430,7 +3475,7 @@
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
-      <c r="E172" s="18"/>
+      <c r="E172" s="17"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2" t="s">
@@ -3439,7 +3484,7 @@
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
-      <c r="E173" s="18"/>
+      <c r="E173" s="17"/>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2" t="s">
@@ -3448,7 +3493,7 @@
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
-      <c r="E174" s="18"/>
+      <c r="E174" s="17"/>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="4" t="s">
@@ -3457,7 +3502,7 @@
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
-      <c r="E175" s="18"/>
+      <c r="E175" s="17"/>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2" t="s">
@@ -3466,7 +3511,7 @@
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
-      <c r="E176" s="18"/>
+      <c r="E176" s="17"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2" t="s">
@@ -3475,7 +3520,7 @@
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
-      <c r="E177" s="18"/>
+      <c r="E177" s="17"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2" t="s">
@@ -3484,7 +3529,7 @@
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
-      <c r="E178" s="18"/>
+      <c r="E178" s="17"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2" t="s">
@@ -3493,7 +3538,7 @@
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
-      <c r="E179" s="18"/>
+      <c r="E179" s="17"/>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2" t="s">
@@ -3502,7 +3547,7 @@
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
-      <c r="E180" s="18"/>
+      <c r="E180" s="17"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2" t="s">
@@ -3511,7 +3556,7 @@
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
-      <c r="E181" s="18"/>
+      <c r="E181" s="17"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2" t="s">
@@ -3520,7 +3565,7 @@
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
-      <c r="E182" s="18"/>
+      <c r="E182" s="17"/>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="4" t="s">
@@ -3529,7 +3574,7 @@
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
-      <c r="E183" s="18"/>
+      <c r="E183" s="17"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="4" t="s">
@@ -3538,7 +3583,7 @@
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
-      <c r="E184" s="18"/>
+      <c r="E184" s="17"/>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="4" t="s">
@@ -3547,7 +3592,7 @@
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
-      <c r="E185" s="18"/>
+      <c r="E185" s="17"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2" t="s">
@@ -3556,7 +3601,7 @@
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
-      <c r="E186" s="18"/>
+      <c r="E186" s="17"/>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="4" t="s">
@@ -3565,7 +3610,7 @@
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
-      <c r="E187" s="18"/>
+      <c r="E187" s="17"/>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2" t="s">
@@ -3574,7 +3619,7 @@
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
-      <c r="E188" s="18"/>
+      <c r="E188" s="17"/>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="4" t="s">
@@ -3583,7 +3628,7 @@
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
-      <c r="E189" s="18"/>
+      <c r="E189" s="17"/>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="4" t="s">
@@ -3592,7 +3637,7 @@
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
-      <c r="E190" s="18"/>
+      <c r="E190" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3605,19 +3650,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="89.25" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5343,32 +5388,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>402</v>
       </c>
     </row>
@@ -5376,17 +5422,17 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="25"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27">
+      <c r="C4" s="25"/>
+      <c r="D4" s="26">
         <v>43749</v>
       </c>
     </row>
@@ -5394,7 +5440,7 @@
       <c r="B5" t="s">
         <v>405</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <v>43749</v>
       </c>
     </row>
@@ -5402,7 +5448,7 @@
       <c r="B6" t="s">
         <v>406</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <v>43749</v>
       </c>
     </row>
@@ -5410,7 +5456,7 @@
       <c r="B7" t="s">
         <v>407</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="26">
         <v>43749</v>
       </c>
     </row>
@@ -5418,7 +5464,7 @@
       <c r="B8" t="s">
         <v>408</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="26">
         <v>43749</v>
       </c>
     </row>
@@ -5426,11 +5472,11 @@
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27">
+      <c r="C9" s="25"/>
+      <c r="D9" s="26">
         <v>43749</v>
       </c>
     </row>
@@ -5438,7 +5484,7 @@
       <c r="B10" t="s">
         <v>410</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="26">
         <v>43749</v>
       </c>
     </row>
@@ -5446,7 +5492,7 @@
       <c r="B11" t="s">
         <v>411</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="26">
         <v>43749</v>
       </c>
     </row>
@@ -5454,7 +5500,7 @@
       <c r="B12" t="s">
         <v>412</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="26">
         <v>43749</v>
       </c>
     </row>
@@ -5462,7 +5508,7 @@
       <c r="B13" t="s">
         <v>413</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="26">
         <v>43749</v>
       </c>
     </row>
@@ -5470,7 +5516,7 @@
       <c r="B14" t="s">
         <v>414</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="26">
         <v>43749</v>
       </c>
     </row>
@@ -5478,7 +5524,7 @@
       <c r="A15">
         <v>3</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>415</v>
       </c>
     </row>
@@ -5493,10 +5539,10 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="26">
+      <c r="A18" s="25">
         <v>4</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>418</v>
       </c>
     </row>
@@ -5506,7 +5552,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>420</v>
       </c>
     </row>
